--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phani.potturi\Videos\2025\python\automation-framework-with-python-playwright\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924AEDFA-2969-43CF-8005-370EA678CDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA1CE8C-34BD-4F61-B709-B14DA2BEF525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85A723F1-F3AA-4FDA-81E7-0F17E1A5CDD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>key</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>studdentt</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>Logged In Successfully</t>
+  </si>
+  <si>
+    <t>Your password is invalid!</t>
+  </si>
+  <si>
+    <t>Your username is invalid!</t>
   </si>
 </sst>
 </file>
@@ -429,19 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33107339-38DB-442D-9C83-4FF54D521CE8}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +464,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -462,8 +478,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -473,8 +492,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -484,8 +506,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -494,6 +519,9 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phani.potturi\Videos\2025\python\automation-framework-with-python-playwright\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA1CE8C-34BD-4F61-B709-B14DA2BEF525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FDBC97-2DC2-4D6B-BCB2-0EFFC604859A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85A723F1-F3AA-4FDA-81E7-0F17E1A5CDD4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{85A723F1-F3AA-4FDA-81E7-0F17E1A5CDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="nav links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>key</t>
   </si>
@@ -84,13 +85,67 @@
   </si>
   <si>
     <t>Your username is invalid!</t>
+  </si>
+  <si>
+    <t>link name</t>
+  </si>
+  <si>
+    <t>expected page title</t>
+  </si>
+  <si>
+    <t>Practice Test Automation | Learn Selenium WebDriver</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>Practice | Practice Test Automation</t>
+  </si>
+  <si>
+    <t>PRACTICE</t>
+  </si>
+  <si>
+    <t>Courses | Practice Test Automation</t>
+  </si>
+  <si>
+    <t>COURSES</t>
+  </si>
+  <si>
+    <t>BLOG</t>
+  </si>
+  <si>
+    <t>Blog | Practice Test Automation</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>Contact | Practice Test Automation | Selenium WebDriver</t>
+  </si>
+  <si>
+    <t>expected url endpoint</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/practice/</t>
+  </si>
+  <si>
+    <t>/courses/</t>
+  </si>
+  <si>
+    <t>/blog/</t>
+  </si>
+  <si>
+    <t>/contact/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +159,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,12 +190,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33107339-38DB-442D-9C83-4FF54D521CE8}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,72 +545,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -528,4 +618,91 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F34709-5632-4541-A2CE-5B888C629C5F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="61.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>